--- a/Unity_ET_FrameWork/ET-Branch_V5.0/Excel/Levelinfo.xlsx
+++ b/Unity_ET_FrameWork/ET-Branch_V5.0/Excel/Levelinfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherGitProjects\UFramework\Unity_ET_FrameWork\ET-Branch_V5.0\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32BAD68-5476-4469-BC3A-385A85199448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24885" windowHeight="11205"/>
+    <workbookView xWindow="2415" yWindow="1815" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levelinfo" sheetId="1" r:id="rId1"/>
@@ -241,14 +247,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,348 +260,24 @@
       <sz val="9"/>
       <color rgb="FFDCDCDC"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -609,251 +285,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,61 +299,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1177,30 +567,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="D469" sqref="D469"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="20" width="17.125" customWidth="1"/>
     <col min="21" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="3:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>41</v>
       </c>
@@ -1386,7 +776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="3:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C6">
         <v>1</v>
       </c>
@@ -1448,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>2</v>
       </c>
@@ -1510,7 +900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C8">
         <v>3</v>
       </c>
@@ -1572,7 +962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C9">
         <v>4</v>
       </c>
@@ -1634,7 +1024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C10">
         <v>5</v>
       </c>
@@ -1696,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C11">
         <v>6</v>
       </c>
@@ -1758,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C12">
         <v>7</v>
       </c>
@@ -1820,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>8</v>
       </c>
@@ -1882,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C14">
         <v>9</v>
       </c>
@@ -1944,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C15">
         <v>10</v>
       </c>
@@ -2006,7 +1396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C16">
         <v>11</v>
       </c>
@@ -2068,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:22">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>12</v>
       </c>
@@ -2130,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:22">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C18">
         <v>13</v>
       </c>
@@ -2192,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:22">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C19">
         <v>14</v>
       </c>
@@ -2254,7 +1644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:22">
+    <row r="20" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C20">
         <v>15</v>
       </c>
@@ -2316,7 +1706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:22">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C21">
         <v>16</v>
       </c>
@@ -2378,7 +1768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:22">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>17</v>
       </c>
@@ -2440,7 +1830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:22">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C23">
         <v>18</v>
       </c>
@@ -2502,7 +1892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:22">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C24">
         <v>19</v>
       </c>
@@ -2564,7 +1954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:22">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C25">
         <v>20</v>
       </c>
@@ -2626,7 +2016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="3:22">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C26">
         <v>21</v>
       </c>
@@ -2688,7 +2078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:22">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C27">
         <v>22</v>
       </c>
@@ -2750,7 +2140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:22">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C28">
         <v>23</v>
       </c>
@@ -2812,7 +2202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:22">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C29">
         <v>24</v>
       </c>
@@ -2874,7 +2264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:22">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C30">
         <v>25</v>
       </c>
@@ -2936,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="3:22">
+    <row r="31" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C31">
         <v>26</v>
       </c>
@@ -2998,7 +2388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:22">
+    <row r="32" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C32">
         <v>27</v>
       </c>
@@ -3060,7 +2450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:22">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C33">
         <v>28</v>
       </c>
@@ -3122,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:22">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C34">
         <v>29</v>
       </c>
@@ -3184,7 +2574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:22">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C35">
         <v>30</v>
       </c>
@@ -3246,7 +2636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:22">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C36">
         <v>31</v>
       </c>
@@ -3308,7 +2698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:22">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C37">
         <v>32</v>
       </c>
@@ -3370,7 +2760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:22">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C38">
         <v>33</v>
       </c>
@@ -3432,7 +2822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:22">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C39">
         <v>34</v>
       </c>
@@ -3494,7 +2884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="3:22">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C40">
         <v>35</v>
       </c>
@@ -3556,7 +2946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:22">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C41">
         <v>36</v>
       </c>
@@ -3618,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:22">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C42">
         <v>37</v>
       </c>
@@ -3680,7 +3070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="3:22">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C43">
         <v>38</v>
       </c>
@@ -3742,7 +3132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="3:22">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C44">
         <v>39</v>
       </c>
@@ -3804,7 +3194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="3:22">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C45">
         <v>40</v>
       </c>
@@ -3866,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="3:22">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C46">
         <v>41</v>
       </c>
@@ -3928,7 +3318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="3:22">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C47">
         <v>42</v>
       </c>
@@ -3990,7 +3380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="3:22">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C48">
         <v>43</v>
       </c>
@@ -4052,7 +3442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="3:22">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C49">
         <v>44</v>
       </c>
@@ -4114,7 +3504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:22">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C50">
         <v>45</v>
       </c>
@@ -4176,7 +3566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="3:22">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C51">
         <v>46</v>
       </c>
@@ -4238,7 +3628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:22">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C52">
         <v>47</v>
       </c>
@@ -4300,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:22">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C53">
         <v>48</v>
       </c>
@@ -4362,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="3:22">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C54">
         <v>49</v>
       </c>
@@ -4424,7 +3814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="3:22">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C55">
         <v>50</v>
       </c>
@@ -4486,7 +3876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="3:22">
+    <row r="56" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C56">
         <v>51</v>
       </c>
@@ -4548,7 +3938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:22">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C57">
         <v>52</v>
       </c>
@@ -4610,7 +4000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="3:22">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C58">
         <v>53</v>
       </c>
@@ -4672,7 +4062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:22">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C59">
         <v>54</v>
       </c>
@@ -4734,7 +4124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="3:22">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C60">
         <v>55</v>
       </c>
@@ -4796,7 +4186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:22">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C61">
         <v>56</v>
       </c>
@@ -4858,7 +4248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="3:22">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C62">
         <v>57</v>
       </c>
@@ -4920,7 +4310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:22">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C63">
         <v>58</v>
       </c>
@@ -4982,7 +4372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="3:22">
+    <row r="64" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C64">
         <v>59</v>
       </c>
@@ -5044,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="3:22">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C65">
         <v>60</v>
       </c>
@@ -5106,7 +4496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="3:22">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C66">
         <v>61</v>
       </c>
@@ -5168,7 +4558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="3:22">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C67">
         <v>62</v>
       </c>
@@ -5230,7 +4620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="3:22">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C68">
         <v>63</v>
       </c>
@@ -5292,7 +4682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="3:22">
+    <row r="69" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C69">
         <v>64</v>
       </c>
@@ -5354,7 +4744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="3:22">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C70">
         <v>65</v>
       </c>
@@ -5416,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="3:22">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C71">
         <v>66</v>
       </c>
@@ -5478,7 +4868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="3:22">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C72">
         <v>67</v>
       </c>
@@ -5540,7 +4930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="3:22">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C73">
         <v>68</v>
       </c>
@@ -5602,7 +4992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="3:22">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C74">
         <v>69</v>
       </c>
@@ -5664,7 +5054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="3:22">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C75">
         <v>70</v>
       </c>
@@ -5726,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="3:22">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C76">
         <v>71</v>
       </c>
@@ -5788,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="3:22">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C77">
         <v>72</v>
       </c>
@@ -5850,7 +5240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="3:22">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C78">
         <v>73</v>
       </c>
@@ -5912,7 +5302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="3:22">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C79">
         <v>74</v>
       </c>
@@ -5974,7 +5364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="3:22">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C80">
         <v>75</v>
       </c>
@@ -6036,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="3:22">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C81">
         <v>76</v>
       </c>
@@ -6098,7 +5488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="3:22">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C82">
         <v>77</v>
       </c>
@@ -6160,7 +5550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="3:22">
+    <row r="83" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C83">
         <v>78</v>
       </c>
@@ -6222,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:22">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C84">
         <v>79</v>
       </c>
@@ -6284,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="3:22">
+    <row r="85" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C85">
         <v>80</v>
       </c>
@@ -6346,7 +5736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="3:22">
+    <row r="86" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C86">
         <v>81</v>
       </c>
@@ -6408,7 +5798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="3:22">
+    <row r="87" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C87">
         <v>82</v>
       </c>
@@ -6470,7 +5860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="3:22">
+    <row r="88" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C88">
         <v>83</v>
       </c>
@@ -6532,7 +5922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="3:22">
+    <row r="89" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C89">
         <v>84</v>
       </c>
@@ -6594,7 +5984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="3:22">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C90">
         <v>85</v>
       </c>
@@ -6656,7 +6046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="3:22">
+    <row r="91" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C91">
         <v>86</v>
       </c>
@@ -6718,7 +6108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="3:22">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C92">
         <v>87</v>
       </c>
@@ -6780,7 +6170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="3:22">
+    <row r="93" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C93">
         <v>88</v>
       </c>
@@ -6842,7 +6232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="3:22">
+    <row r="94" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C94">
         <v>89</v>
       </c>
@@ -6904,7 +6294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="3:22">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C95">
         <v>90</v>
       </c>
@@ -6966,7 +6356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="3:22">
+    <row r="96" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C96">
         <v>91</v>
       </c>
@@ -7028,7 +6418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="3:22">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C97">
         <v>92</v>
       </c>
@@ -7090,7 +6480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="3:22">
+    <row r="98" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C98">
         <v>93</v>
       </c>
@@ -7152,7 +6542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="3:22">
+    <row r="99" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C99">
         <v>94</v>
       </c>
@@ -7214,7 +6604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="3:22">
+    <row r="100" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C100">
         <v>95</v>
       </c>
@@ -7276,7 +6666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="3:22">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C101">
         <v>96</v>
       </c>
@@ -7338,7 +6728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="3:22">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C102">
         <v>97</v>
       </c>
@@ -7400,7 +6790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="3:22">
+    <row r="103" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C103">
         <v>98</v>
       </c>
@@ -7462,7 +6852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="3:22">
+    <row r="104" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C104">
         <v>99</v>
       </c>
@@ -7524,7 +6914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="3:22">
+    <row r="105" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C105">
         <v>100</v>
       </c>
@@ -7586,7 +6976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="3:22">
+    <row r="106" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C106">
         <v>101</v>
       </c>
@@ -7648,7 +7038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="3:22">
+    <row r="107" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C107">
         <v>102</v>
       </c>
@@ -7710,7 +7100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="3:22">
+    <row r="108" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C108">
         <v>103</v>
       </c>
@@ -7772,7 +7162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="3:22">
+    <row r="109" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C109">
         <v>104</v>
       </c>
@@ -7834,7 +7224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="3:22">
+    <row r="110" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C110">
         <v>105</v>
       </c>
@@ -7896,7 +7286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="3:22">
+    <row r="111" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C111">
         <v>106</v>
       </c>
@@ -7958,7 +7348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="3:22">
+    <row r="112" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C112">
         <v>107</v>
       </c>
@@ -8020,7 +7410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:22">
+    <row r="113" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C113">
         <v>108</v>
       </c>
@@ -8082,7 +7472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="3:22">
+    <row r="114" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C114">
         <v>109</v>
       </c>
@@ -8144,7 +7534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="3:22">
+    <row r="115" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C115">
         <v>110</v>
       </c>
@@ -8206,7 +7596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="3:22">
+    <row r="116" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C116">
         <v>111</v>
       </c>
@@ -8268,7 +7658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="3:22">
+    <row r="117" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C117">
         <v>112</v>
       </c>
@@ -8330,7 +7720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="3:22">
+    <row r="118" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C118">
         <v>113</v>
       </c>
@@ -8392,7 +7782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="3:22">
+    <row r="119" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C119">
         <v>114</v>
       </c>
@@ -8454,7 +7844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="3:22">
+    <row r="120" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C120">
         <v>115</v>
       </c>
@@ -8516,7 +7906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="3:22">
+    <row r="121" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C121">
         <v>116</v>
       </c>
@@ -8578,7 +7968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="3:22">
+    <row r="122" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C122">
         <v>117</v>
       </c>
@@ -8640,7 +8030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="3:22">
+    <row r="123" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C123">
         <v>118</v>
       </c>
@@ -8702,7 +8092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="3:22">
+    <row r="124" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C124">
         <v>119</v>
       </c>
@@ -8764,7 +8154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="3:22">
+    <row r="125" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C125">
         <v>120</v>
       </c>
@@ -8826,7 +8216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="3:22">
+    <row r="126" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C126">
         <v>121</v>
       </c>
@@ -8888,7 +8278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="3:22">
+    <row r="127" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C127">
         <v>122</v>
       </c>
@@ -8950,7 +8340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="3:22">
+    <row r="128" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C128">
         <v>123</v>
       </c>
@@ -9012,7 +8402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="3:22">
+    <row r="129" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C129">
         <v>124</v>
       </c>
@@ -9074,7 +8464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="3:22">
+    <row r="130" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C130">
         <v>125</v>
       </c>
@@ -9136,7 +8526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="3:22">
+    <row r="131" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C131">
         <v>126</v>
       </c>
@@ -9198,7 +8588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="3:22">
+    <row r="132" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C132">
         <v>127</v>
       </c>
@@ -9260,7 +8650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="3:22">
+    <row r="133" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C133">
         <v>128</v>
       </c>
@@ -9322,7 +8712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="3:22">
+    <row r="134" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C134">
         <v>129</v>
       </c>
@@ -9384,7 +8774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="3:22">
+    <row r="135" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C135">
         <v>130</v>
       </c>
@@ -9446,7 +8836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="3:22">
+    <row r="136" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C136">
         <v>131</v>
       </c>
@@ -9508,7 +8898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="3:22">
+    <row r="137" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C137">
         <v>132</v>
       </c>
@@ -9570,7 +8960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="3:22">
+    <row r="138" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C138">
         <v>133</v>
       </c>
@@ -9632,7 +9022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="3:22">
+    <row r="139" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C139">
         <v>134</v>
       </c>
@@ -9694,7 +9084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="3:22">
+    <row r="140" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C140">
         <v>135</v>
       </c>
@@ -9756,7 +9146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="3:22">
+    <row r="141" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C141">
         <v>136</v>
       </c>
@@ -9818,7 +9208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="3:22">
+    <row r="142" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C142">
         <v>137</v>
       </c>
@@ -9880,7 +9270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="3:22">
+    <row r="143" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C143">
         <v>138</v>
       </c>
@@ -9942,7 +9332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="3:22">
+    <row r="144" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C144">
         <v>139</v>
       </c>
@@ -10004,7 +9394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="3:22">
+    <row r="145" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C145">
         <v>140</v>
       </c>
@@ -10066,7 +9456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="3:22">
+    <row r="146" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C146">
         <v>141</v>
       </c>
@@ -10128,7 +9518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="3:22">
+    <row r="147" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C147">
         <v>142</v>
       </c>
@@ -10190,7 +9580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="3:22">
+    <row r="148" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C148">
         <v>143</v>
       </c>
@@ -10252,7 +9642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="3:22">
+    <row r="149" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C149">
         <v>144</v>
       </c>
@@ -10314,7 +9704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="3:22">
+    <row r="150" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C150">
         <v>145</v>
       </c>
@@ -10376,7 +9766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="3:22">
+    <row r="151" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C151">
         <v>146</v>
       </c>
@@ -10438,7 +9828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="3:22">
+    <row r="152" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C152">
         <v>147</v>
       </c>
@@ -10500,7 +9890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="3:22">
+    <row r="153" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C153">
         <v>148</v>
       </c>
@@ -10562,7 +9952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="3:22">
+    <row r="154" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C154">
         <v>149</v>
       </c>
@@ -10624,7 +10014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="3:22">
+    <row r="155" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C155">
         <v>150</v>
       </c>
@@ -10686,7 +10076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="3:22">
+    <row r="156" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C156">
         <v>151</v>
       </c>
@@ -10748,7 +10138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="3:22">
+    <row r="157" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C157">
         <v>152</v>
       </c>
@@ -10810,7 +10200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="3:22">
+    <row r="158" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C158">
         <v>153</v>
       </c>
@@ -10872,7 +10262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="3:22">
+    <row r="159" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C159">
         <v>154</v>
       </c>
@@ -10934,7 +10324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="3:22">
+    <row r="160" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C160">
         <v>155</v>
       </c>
@@ -10996,7 +10386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="3:22">
+    <row r="161" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C161">
         <v>156</v>
       </c>
@@ -11058,7 +10448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="3:22">
+    <row r="162" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C162">
         <v>157</v>
       </c>
@@ -11120,7 +10510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="3:22">
+    <row r="163" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C163">
         <v>158</v>
       </c>
@@ -11182,7 +10572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="3:22">
+    <row r="164" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C164">
         <v>159</v>
       </c>
@@ -11244,7 +10634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="3:22">
+    <row r="165" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C165">
         <v>160</v>
       </c>
@@ -11306,7 +10696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="3:22">
+    <row r="166" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C166">
         <v>161</v>
       </c>
@@ -11368,7 +10758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="3:22">
+    <row r="167" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C167">
         <v>162</v>
       </c>
@@ -11430,7 +10820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="3:22">
+    <row r="168" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C168">
         <v>163</v>
       </c>
@@ -11492,7 +10882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="3:22">
+    <row r="169" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C169">
         <v>164</v>
       </c>
@@ -11554,7 +10944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="3:22">
+    <row r="170" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C170">
         <v>165</v>
       </c>
@@ -11616,7 +11006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="3:22">
+    <row r="171" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C171">
         <v>166</v>
       </c>
@@ -11678,7 +11068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="3:22">
+    <row r="172" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C172">
         <v>167</v>
       </c>
@@ -11740,7 +11130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="3:22">
+    <row r="173" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C173">
         <v>168</v>
       </c>
@@ -11802,7 +11192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="3:22">
+    <row r="174" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C174">
         <v>169</v>
       </c>
@@ -11864,7 +11254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="3:22">
+    <row r="175" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C175">
         <v>170</v>
       </c>
@@ -11926,7 +11316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="3:22">
+    <row r="176" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C176">
         <v>171</v>
       </c>
@@ -11988,7 +11378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="3:22">
+    <row r="177" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C177">
         <v>172</v>
       </c>
@@ -12050,7 +11440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="3:22">
+    <row r="178" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C178">
         <v>173</v>
       </c>
@@ -12112,7 +11502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="3:22">
+    <row r="179" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C179">
         <v>174</v>
       </c>
@@ -12174,7 +11564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="3:22">
+    <row r="180" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C180">
         <v>175</v>
       </c>
@@ -12236,7 +11626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="3:22">
+    <row r="181" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C181">
         <v>176</v>
       </c>
@@ -12298,7 +11688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="3:22">
+    <row r="182" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C182">
         <v>177</v>
       </c>
@@ -12360,7 +11750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="3:22">
+    <row r="183" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C183">
         <v>178</v>
       </c>
@@ -12422,7 +11812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="3:22">
+    <row r="184" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C184">
         <v>179</v>
       </c>
@@ -12484,7 +11874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="3:22">
+    <row r="185" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C185">
         <v>180</v>
       </c>
@@ -12546,7 +11936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="3:22">
+    <row r="186" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C186">
         <v>181</v>
       </c>
@@ -12608,7 +11998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="3:22">
+    <row r="187" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C187">
         <v>182</v>
       </c>
@@ -12670,7 +12060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="3:22">
+    <row r="188" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C188">
         <v>183</v>
       </c>
@@ -12732,7 +12122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="3:22">
+    <row r="189" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C189">
         <v>184</v>
       </c>
@@ -12794,7 +12184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="3:22">
+    <row r="190" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C190">
         <v>185</v>
       </c>
@@ -12856,7 +12246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="3:22">
+    <row r="191" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C191">
         <v>186</v>
       </c>
@@ -12918,7 +12308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="3:22">
+    <row r="192" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C192">
         <v>187</v>
       </c>
@@ -12980,7 +12370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="3:22">
+    <row r="193" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C193">
         <v>188</v>
       </c>
@@ -13042,7 +12432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="3:22">
+    <row r="194" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C194">
         <v>189</v>
       </c>
@@ -13104,7 +12494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="3:22">
+    <row r="195" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C195">
         <v>190</v>
       </c>
@@ -13166,7 +12556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="3:22">
+    <row r="196" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C196">
         <v>191</v>
       </c>
@@ -13228,7 +12618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="3:22">
+    <row r="197" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C197">
         <v>192</v>
       </c>
@@ -13290,7 +12680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="3:22">
+    <row r="198" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C198">
         <v>193</v>
       </c>
@@ -13352,7 +12742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="3:22">
+    <row r="199" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C199">
         <v>194</v>
       </c>
@@ -13414,7 +12804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="3:22">
+    <row r="200" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C200">
         <v>195</v>
       </c>
@@ -13476,7 +12866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="3:22">
+    <row r="201" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C201">
         <v>196</v>
       </c>
@@ -13538,7 +12928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="3:22">
+    <row r="202" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C202">
         <v>197</v>
       </c>
@@ -13600,7 +12990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="3:22">
+    <row r="203" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C203">
         <v>198</v>
       </c>
@@ -13662,7 +13052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="3:22">
+    <row r="204" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C204">
         <v>199</v>
       </c>
@@ -13724,7 +13114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="3:22">
+    <row r="205" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C205">
         <v>200</v>
       </c>
@@ -13786,7 +13176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="3:22">
+    <row r="206" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C206">
         <v>201</v>
       </c>
@@ -13848,7 +13238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="3:22">
+    <row r="207" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C207">
         <v>202</v>
       </c>
@@ -13910,7 +13300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="3:22">
+    <row r="208" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C208">
         <v>203</v>
       </c>
@@ -13972,7 +13362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="3:22">
+    <row r="209" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C209">
         <v>204</v>
       </c>
@@ -14034,7 +13424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="3:22">
+    <row r="210" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C210">
         <v>205</v>
       </c>
@@ -14096,7 +13486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="3:22">
+    <row r="211" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C211">
         <v>206</v>
       </c>
@@ -14158,7 +13548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="3:22">
+    <row r="212" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C212">
         <v>207</v>
       </c>
@@ -14220,7 +13610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="3:22">
+    <row r="213" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C213">
         <v>208</v>
       </c>
@@ -14282,7 +13672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="3:22">
+    <row r="214" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C214">
         <v>209</v>
       </c>
@@ -14344,7 +13734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="3:22">
+    <row r="215" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C215">
         <v>210</v>
       </c>
@@ -14406,7 +13796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="3:22">
+    <row r="216" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C216">
         <v>211</v>
       </c>
@@ -14468,7 +13858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="3:22">
+    <row r="217" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C217">
         <v>212</v>
       </c>
@@ -14530,7 +13920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="3:22">
+    <row r="218" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C218">
         <v>213</v>
       </c>
@@ -14592,7 +13982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="3:22">
+    <row r="219" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C219">
         <v>214</v>
       </c>
@@ -14654,7 +14044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="3:22">
+    <row r="220" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C220">
         <v>215</v>
       </c>
@@ -14716,7 +14106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="3:22">
+    <row r="221" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C221">
         <v>216</v>
       </c>
@@ -14778,7 +14168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="3:22">
+    <row r="222" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C222">
         <v>217</v>
       </c>
@@ -14840,7 +14230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="3:22">
+    <row r="223" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C223">
         <v>218</v>
       </c>
@@ -14902,7 +14292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="3:22">
+    <row r="224" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C224">
         <v>219</v>
       </c>
@@ -14964,7 +14354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="3:22">
+    <row r="225" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C225">
         <v>220</v>
       </c>
@@ -15026,12 +14416,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C226" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="3:22">
+    <row r="227" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C227" t="s">
         <v>44</v>
       </c>
@@ -15090,12 +14480,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C228" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="3:22">
+    <row r="229" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C229" t="s">
         <v>44</v>
       </c>
@@ -15154,9 +14544,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="3:22">
+    <row r="230" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C230">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="D230">
         <v>2</v>
@@ -15216,9 +14606,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="3:22">
+    <row r="231" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C231">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -15278,9 +14668,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="3:22">
+    <row r="232" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C232">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="D232">
         <v>2</v>
@@ -15340,9 +14730,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="3:22">
+    <row r="233" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C233">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -15402,9 +14792,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="3:22">
+    <row r="234" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C234">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -15464,9 +14854,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="3:22">
+    <row r="235" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C235">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="D235">
         <v>2</v>
@@ -15526,9 +14916,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="3:22">
+    <row r="236" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C236">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="D236">
         <v>2</v>
@@ -15588,9 +14978,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="3:22">
+    <row r="237" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C237">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -15650,9 +15040,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="3:22">
+    <row r="238" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C238">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D238">
         <v>2</v>
@@ -15712,9 +15102,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="3:22">
+    <row r="239" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C239">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="D239">
         <v>2</v>
@@ -15774,9 +15164,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="3:22">
+    <row r="240" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C240">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="D240">
         <v>2</v>
@@ -15836,9 +15226,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="3:22">
+    <row r="241" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C241">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="D241">
         <v>2</v>
@@ -15898,9 +15288,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="3:22">
+    <row r="242" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C242">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="D242">
         <v>2</v>
@@ -15960,9 +15350,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="3:22">
+    <row r="243" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C243">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -16022,9 +15412,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="3:22">
+    <row r="244" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C244">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -16084,9 +15474,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="3:22">
+    <row r="245" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C245">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="D245">
         <v>2</v>
@@ -16146,9 +15536,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="3:22">
+    <row r="246" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C246">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -16208,9 +15598,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="3:22">
+    <row r="247" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C247">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="D247">
         <v>2</v>
@@ -16270,9 +15660,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="3:22">
+    <row r="248" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C248">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="D248">
         <v>2</v>
@@ -16332,9 +15722,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="3:22">
+    <row r="249" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C249">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="D249">
         <v>2</v>
@@ -16394,9 +15784,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="3:22">
+    <row r="250" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C250">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -16456,9 +15846,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="3:22">
+    <row r="251" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C251">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -16518,9 +15908,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="3:22">
+    <row r="252" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C252">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="D252">
         <v>2</v>
@@ -16580,9 +15970,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="3:22">
+    <row r="253" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C253">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -16642,9 +16032,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="3:22">
+    <row r="254" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C254">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="D254">
         <v>2</v>
@@ -16704,9 +16094,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="3:22">
+    <row r="255" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C255">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -16766,9 +16156,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="3:22">
+    <row r="256" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C256">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="D256">
         <v>2</v>
@@ -16828,9 +16218,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="3:22">
+    <row r="257" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C257">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="D257">
         <v>2</v>
@@ -16890,9 +16280,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="3:22">
+    <row r="258" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C258">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="D258">
         <v>2</v>
@@ -16952,9 +16342,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="3:22">
+    <row r="259" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C259">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="D259">
         <v>2</v>
@@ -17014,9 +16404,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="3:22">
+    <row r="260" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C260">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="D260">
         <v>2</v>
@@ -17076,9 +16466,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="3:22">
+    <row r="261" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C261">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="D261">
         <v>2</v>
@@ -17138,9 +16528,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="3:22">
+    <row r="262" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C262">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D262">
         <v>2</v>
@@ -17200,9 +16590,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="3:22">
+    <row r="263" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C263">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="D263">
         <v>2</v>
@@ -17262,9 +16652,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="3:22">
+    <row r="264" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C264">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="D264">
         <v>2</v>
@@ -17324,9 +16714,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="3:22">
+    <row r="265" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C265">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="D265">
         <v>2</v>
@@ -17386,9 +16776,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="3:22">
+    <row r="266" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C266">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="D266">
         <v>2</v>
@@ -17448,9 +16838,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="3:22">
+    <row r="267" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C267">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -17510,9 +16900,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="3:22">
+    <row r="268" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C268">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -17572,9 +16962,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="3:22">
+    <row r="269" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C269">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="D269">
         <v>2</v>
@@ -17634,9 +17024,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="3:22">
+    <row r="270" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C270">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -17696,9 +17086,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="3:22">
+    <row r="271" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C271">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -17758,9 +17148,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="3:22">
+    <row r="272" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C272">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -17820,9 +17210,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="3:22">
+    <row r="273" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C273">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="D273">
         <v>2</v>
@@ -17882,9 +17272,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="3:22">
+    <row r="274" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C274">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -17944,9 +17334,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="3:22">
+    <row r="275" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C275">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="D275">
         <v>2</v>
@@ -18006,9 +17396,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="3:22">
+    <row r="276" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C276">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -18068,9 +17458,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="3:22">
+    <row r="277" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C277">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -18130,9 +17520,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="3:22">
+    <row r="278" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C278">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -18192,9 +17582,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="3:22">
+    <row r="279" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C279">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="D279">
         <v>2</v>
@@ -18254,9 +17644,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="3:22">
+    <row r="280" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C280">
-        <v>51</v>
+        <v>271</v>
       </c>
       <c r="D280">
         <v>2</v>
@@ -18316,9 +17706,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="3:22">
+    <row r="281" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C281">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="D281">
         <v>2</v>
@@ -18378,9 +17768,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="3:22">
+    <row r="282" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C282">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="D282">
         <v>2</v>
@@ -18440,9 +17830,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="3:22">
+    <row r="283" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C283">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -18502,9 +17892,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="3:22">
+    <row r="284" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C284">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="D284">
         <v>2</v>
@@ -18564,9 +17954,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="3:22">
+    <row r="285" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C285">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -18626,9 +18016,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="3:22">
+    <row r="286" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C286">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="D286">
         <v>2</v>
@@ -18688,9 +18078,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="3:22">
+    <row r="287" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C287">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="D287">
         <v>2</v>
@@ -18750,9 +18140,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="3:22">
+    <row r="288" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C288">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="D288">
         <v>2</v>
@@ -18812,9 +18202,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="3:22">
+    <row r="289" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C289">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="D289">
         <v>2</v>
@@ -18874,9 +18264,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="3:22">
+    <row r="290" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C290">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -18936,9 +18326,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="3:22">
+    <row r="291" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C291">
-        <v>62</v>
+        <v>282</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -18998,9 +18388,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="3:22">
+    <row r="292" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C292">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -19060,9 +18450,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="3:22">
+    <row r="293" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C293">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -19122,9 +18512,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="3:22">
+    <row r="294" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C294">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -19184,9 +18574,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="3:22">
+    <row r="295" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C295">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -19246,9 +18636,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="3:22">
+    <row r="296" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C296">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -19308,9 +18698,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="3:22">
+    <row r="297" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C297">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="D297">
         <v>2</v>
@@ -19370,9 +18760,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="3:22">
+    <row r="298" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C298">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -19432,9 +18822,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="3:22">
+    <row r="299" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C299">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -19494,9 +18884,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="3:22">
+    <row r="300" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C300">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -19556,9 +18946,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="3:22">
+    <row r="301" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C301">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="D301">
         <v>2</v>
@@ -19618,9 +19008,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="3:22">
+    <row r="302" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C302">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="D302">
         <v>2</v>
@@ -19680,9 +19070,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="3:22">
+    <row r="303" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C303">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -19742,9 +19132,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="3:22">
+    <row r="304" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C304">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="D304">
         <v>2</v>
@@ -19804,9 +19194,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="3:22">
+    <row r="305" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C305">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="D305">
         <v>2</v>
@@ -19866,9 +19256,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="3:22">
+    <row r="306" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C306">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -19928,9 +19318,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="3:22">
+    <row r="307" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C307">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="D307">
         <v>2</v>
@@ -19990,9 +19380,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="3:22">
+    <row r="308" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C308">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="D308">
         <v>2</v>
@@ -20052,9 +19442,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="3:22">
+    <row r="309" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C309">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="D309">
         <v>2</v>
@@ -20114,9 +19504,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="3:22">
+    <row r="310" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C310">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -20176,9 +19566,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="3:22">
+    <row r="311" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C311">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="D311">
         <v>2</v>
@@ -20238,9 +19628,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="3:22">
+    <row r="312" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C312">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="D312">
         <v>2</v>
@@ -20300,9 +19690,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="3:22">
+    <row r="313" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C313">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="D313">
         <v>2</v>
@@ -20362,9 +19752,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="3:22">
+    <row r="314" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C314">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="D314">
         <v>2</v>
@@ -20424,9 +19814,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="3:22">
+    <row r="315" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C315">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="D315">
         <v>2</v>
@@ -20486,9 +19876,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="3:22">
+    <row r="316" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C316">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -20548,9 +19938,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="3:22">
+    <row r="317" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C317">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="D317">
         <v>2</v>
@@ -20610,9 +20000,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="3:22">
+    <row r="318" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C318">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="D318">
         <v>2</v>
@@ -20672,9 +20062,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="3:22">
+    <row r="319" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C319">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="D319">
         <v>2</v>
@@ -20734,9 +20124,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="3:22">
+    <row r="320" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C320">
-        <v>91</v>
+        <v>311</v>
       </c>
       <c r="D320">
         <v>2</v>
@@ -20796,9 +20186,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="3:22">
+    <row r="321" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C321">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c r="D321">
         <v>2</v>
@@ -20858,9 +20248,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="3:22">
+    <row r="322" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C322">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="D322">
         <v>2</v>
@@ -20920,9 +20310,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="3:22">
+    <row r="323" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C323">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="D323">
         <v>2</v>
@@ -20982,9 +20372,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="3:22">
+    <row r="324" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C324">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="D324">
         <v>2</v>
@@ -21044,9 +20434,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="3:22">
+    <row r="325" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C325">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="D325">
         <v>2</v>
@@ -21106,9 +20496,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="3:22">
+    <row r="326" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C326">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="D326">
         <v>2</v>
@@ -21168,9 +20558,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="3:22">
+    <row r="327" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C327">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="D327">
         <v>2</v>
@@ -21230,9 +20620,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="3:22">
+    <row r="328" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C328">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="D328">
         <v>2</v>
@@ -21292,9 +20682,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="3:22">
+    <row r="329" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C329">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="D329">
         <v>2</v>
@@ -21354,9 +20744,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="3:22">
+    <row r="330" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C330">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="D330">
         <v>2</v>
@@ -21416,9 +20806,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="3:22">
+    <row r="331" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C331">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="D331">
         <v>2</v>
@@ -21478,9 +20868,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="3:22">
+    <row r="332" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C332">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="D332">
         <v>2</v>
@@ -21540,9 +20930,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="3:22">
+    <row r="333" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C333">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="D333">
         <v>2</v>
@@ -21602,9 +20992,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="3:22">
+    <row r="334" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C334">
-        <v>105</v>
+        <v>325</v>
       </c>
       <c r="D334">
         <v>2</v>
@@ -21664,9 +21054,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="3:22">
+    <row r="335" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C335">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="D335">
         <v>2</v>
@@ -21726,9 +21116,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="3:22">
+    <row r="336" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C336">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -21788,9 +21178,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="3:22">
+    <row r="337" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C337">
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="D337">
         <v>2</v>
@@ -21850,9 +21240,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="3:22">
+    <row r="338" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C338">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="D338">
         <v>2</v>
@@ -21912,9 +21302,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="3:22">
+    <row r="339" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C339">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="D339">
         <v>2</v>
@@ -21974,9 +21364,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="3:22">
+    <row r="340" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C340">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -22036,9 +21426,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="3:22">
+    <row r="341" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C341">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="D341">
         <v>2</v>
@@ -22098,9 +21488,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="3:22">
+    <row r="342" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C342">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -22160,9 +21550,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="3:22">
+    <row r="343" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C343">
-        <v>114</v>
+        <v>334</v>
       </c>
       <c r="D343">
         <v>2</v>
@@ -22222,9 +21612,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="3:22">
+    <row r="344" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C344">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -22284,9 +21674,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="3:22">
+    <row r="345" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C345">
-        <v>116</v>
+        <v>336</v>
       </c>
       <c r="D345">
         <v>2</v>
@@ -22346,9 +21736,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="3:22">
+    <row r="346" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C346">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="D346">
         <v>2</v>
@@ -22408,9 +21798,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="3:22">
+    <row r="347" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C347">
-        <v>118</v>
+        <v>338</v>
       </c>
       <c r="D347">
         <v>2</v>
@@ -22470,9 +21860,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="3:22">
+    <row r="348" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C348">
-        <v>119</v>
+        <v>339</v>
       </c>
       <c r="D348">
         <v>2</v>
@@ -22532,9 +21922,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="3:22">
+    <row r="349" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C349">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="D349">
         <v>2</v>
@@ -22594,9 +21984,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="3:22">
+    <row r="350" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C350">
-        <v>121</v>
+        <v>341</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -22656,9 +22046,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="3:22">
+    <row r="351" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C351">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="D351">
         <v>2</v>
@@ -22718,9 +22108,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="3:22">
+    <row r="352" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C352">
-        <v>123</v>
+        <v>343</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -22780,9 +22170,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="3:22">
+    <row r="353" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C353">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="D353">
         <v>2</v>
@@ -22842,9 +22232,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="3:22">
+    <row r="354" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C354">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="D354">
         <v>2</v>
@@ -22904,9 +22294,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="3:22">
+    <row r="355" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C355">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="D355">
         <v>2</v>
@@ -22966,9 +22356,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="3:22">
+    <row r="356" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C356">
-        <v>127</v>
+        <v>347</v>
       </c>
       <c r="D356">
         <v>2</v>
@@ -23028,9 +22418,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="3:22">
+    <row r="357" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C357">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="D357">
         <v>2</v>
@@ -23090,9 +22480,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="3:22">
+    <row r="358" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C358">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="D358">
         <v>2</v>
@@ -23152,9 +22542,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="3:22">
+    <row r="359" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C359">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="D359">
         <v>2</v>
@@ -23214,9 +22604,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="3:22">
+    <row r="360" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C360">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -23276,9 +22666,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="3:22">
+    <row r="361" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C361">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="D361">
         <v>2</v>
@@ -23338,9 +22728,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="3:22">
+    <row r="362" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C362">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="D362">
         <v>2</v>
@@ -23400,9 +22790,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="3:22">
+    <row r="363" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C363">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="D363">
         <v>2</v>
@@ -23462,9 +22852,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="3:22">
+    <row r="364" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C364">
-        <v>135</v>
+        <v>355</v>
       </c>
       <c r="D364">
         <v>2</v>
@@ -23524,9 +22914,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="3:22">
+    <row r="365" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C365">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -23586,9 +22976,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="3:22">
+    <row r="366" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C366">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="D366">
         <v>2</v>
@@ -23648,9 +23038,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="3:22">
+    <row r="367" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C367">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -23710,9 +23100,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="3:22">
+    <row r="368" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C368">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="D368">
         <v>2</v>
@@ -23772,9 +23162,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="3:22">
+    <row r="369" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C369">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="D369">
         <v>2</v>
@@ -23834,9 +23224,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="3:22">
+    <row r="370" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C370">
-        <v>141</v>
+        <v>361</v>
       </c>
       <c r="D370">
         <v>2</v>
@@ -23896,9 +23286,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="3:22">
+    <row r="371" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C371">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="D371">
         <v>2</v>
@@ -23958,9 +23348,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="3:22">
+    <row r="372" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C372">
-        <v>143</v>
+        <v>363</v>
       </c>
       <c r="D372">
         <v>2</v>
@@ -24020,9 +23410,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="3:22">
+    <row r="373" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C373">
-        <v>144</v>
+        <v>364</v>
       </c>
       <c r="D373">
         <v>2</v>
@@ -24082,9 +23472,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="3:22">
+    <row r="374" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C374">
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="D374">
         <v>2</v>
@@ -24144,9 +23534,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="3:22">
+    <row r="375" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C375">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="D375">
         <v>2</v>
@@ -24206,9 +23596,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="3:22">
+    <row r="376" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C376">
-        <v>147</v>
+        <v>367</v>
       </c>
       <c r="D376">
         <v>2</v>
@@ -24268,9 +23658,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="3:22">
+    <row r="377" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C377">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="D377">
         <v>2</v>
@@ -24330,9 +23720,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="3:22">
+    <row r="378" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C378">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="D378">
         <v>2</v>
@@ -24392,9 +23782,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="3:22">
+    <row r="379" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C379">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="D379">
         <v>2</v>
@@ -24454,9 +23844,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="3:22">
+    <row r="380" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C380">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="D380">
         <v>2</v>
@@ -24516,9 +23906,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="3:22">
+    <row r="381" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C381">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="D381">
         <v>2</v>
@@ -24578,9 +23968,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="3:22">
+    <row r="382" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C382">
-        <v>153</v>
+        <v>373</v>
       </c>
       <c r="D382">
         <v>2</v>
@@ -24640,9 +24030,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="3:22">
+    <row r="383" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C383">
-        <v>154</v>
+        <v>374</v>
       </c>
       <c r="D383">
         <v>2</v>
@@ -24702,9 +24092,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="3:22">
+    <row r="384" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C384">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="D384">
         <v>2</v>
@@ -24764,9 +24154,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="3:22">
+    <row r="385" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C385">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="D385">
         <v>2</v>
@@ -24826,9 +24216,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="3:22">
+    <row r="386" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C386">
-        <v>157</v>
+        <v>377</v>
       </c>
       <c r="D386">
         <v>2</v>
@@ -24888,9 +24278,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="3:22">
+    <row r="387" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C387">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="D387">
         <v>2</v>
@@ -24950,9 +24340,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="3:22">
+    <row r="388" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C388">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="D388">
         <v>2</v>
@@ -25012,9 +24402,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="3:22">
+    <row r="389" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C389">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="D389">
         <v>2</v>
@@ -25074,9 +24464,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="3:22">
+    <row r="390" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C390">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="D390">
         <v>2</v>
@@ -25136,9 +24526,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="3:22">
+    <row r="391" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C391">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="D391">
         <v>2</v>
@@ -25198,9 +24588,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="3:22">
+    <row r="392" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C392">
-        <v>163</v>
+        <v>383</v>
       </c>
       <c r="D392">
         <v>2</v>
@@ -25260,9 +24650,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="3:22">
+    <row r="393" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C393">
-        <v>164</v>
+        <v>384</v>
       </c>
       <c r="D393">
         <v>2</v>
@@ -25322,9 +24712,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="3:22">
+    <row r="394" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C394">
-        <v>165</v>
+        <v>385</v>
       </c>
       <c r="D394">
         <v>2</v>
@@ -25384,9 +24774,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="3:22">
+    <row r="395" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C395">
-        <v>166</v>
+        <v>386</v>
       </c>
       <c r="D395">
         <v>2</v>
@@ -25446,9 +24836,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="3:22">
+    <row r="396" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C396">
-        <v>167</v>
+        <v>387</v>
       </c>
       <c r="D396">
         <v>2</v>
@@ -25508,9 +24898,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="3:22">
+    <row r="397" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C397">
-        <v>168</v>
+        <v>388</v>
       </c>
       <c r="D397">
         <v>2</v>
@@ -25570,9 +24960,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="3:22">
+    <row r="398" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C398">
-        <v>169</v>
+        <v>389</v>
       </c>
       <c r="D398">
         <v>2</v>
@@ -25632,9 +25022,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="3:22">
+    <row r="399" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C399">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="D399">
         <v>2</v>
@@ -25694,9 +25084,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="3:22">
+    <row r="400" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C400">
-        <v>171</v>
+        <v>391</v>
       </c>
       <c r="D400">
         <v>2</v>
@@ -25756,9 +25146,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="3:22">
+    <row r="401" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C401">
-        <v>172</v>
+        <v>392</v>
       </c>
       <c r="D401">
         <v>2</v>
@@ -25818,9 +25208,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="3:22">
+    <row r="402" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C402">
-        <v>173</v>
+        <v>393</v>
       </c>
       <c r="D402">
         <v>2</v>
@@ -25880,9 +25270,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="3:22">
+    <row r="403" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C403">
-        <v>174</v>
+        <v>394</v>
       </c>
       <c r="D403">
         <v>2</v>
@@ -25942,9 +25332,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="3:22">
+    <row r="404" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C404">
-        <v>175</v>
+        <v>395</v>
       </c>
       <c r="D404">
         <v>2</v>
@@ -26004,9 +25394,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="3:22">
+    <row r="405" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C405">
-        <v>176</v>
+        <v>396</v>
       </c>
       <c r="D405">
         <v>2</v>
@@ -26066,9 +25456,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="3:22">
+    <row r="406" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C406">
-        <v>177</v>
+        <v>397</v>
       </c>
       <c r="D406">
         <v>2</v>
@@ -26128,9 +25518,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="3:22">
+    <row r="407" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C407">
-        <v>178</v>
+        <v>398</v>
       </c>
       <c r="D407">
         <v>2</v>
@@ -26190,9 +25580,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="3:22">
+    <row r="408" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C408">
-        <v>179</v>
+        <v>399</v>
       </c>
       <c r="D408">
         <v>2</v>
@@ -26252,9 +25642,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="3:22">
+    <row r="409" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C409">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="D409">
         <v>2</v>
@@ -26314,9 +25704,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="3:22">
+    <row r="410" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C410">
-        <v>181</v>
+        <v>401</v>
       </c>
       <c r="D410">
         <v>2</v>
@@ -26376,9 +25766,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="3:22">
+    <row r="411" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C411">
-        <v>182</v>
+        <v>402</v>
       </c>
       <c r="D411">
         <v>2</v>
@@ -26438,9 +25828,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="3:22">
+    <row r="412" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C412">
-        <v>183</v>
+        <v>403</v>
       </c>
       <c r="D412">
         <v>2</v>
@@ -26500,9 +25890,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="3:22">
+    <row r="413" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C413">
-        <v>184</v>
+        <v>404</v>
       </c>
       <c r="D413">
         <v>2</v>
@@ -26562,9 +25952,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="3:22">
+    <row r="414" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C414">
-        <v>185</v>
+        <v>405</v>
       </c>
       <c r="D414">
         <v>2</v>
@@ -26624,9 +26014,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="3:22">
+    <row r="415" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C415">
-        <v>186</v>
+        <v>406</v>
       </c>
       <c r="D415">
         <v>2</v>
@@ -26686,9 +26076,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="3:22">
+    <row r="416" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C416">
-        <v>187</v>
+        <v>407</v>
       </c>
       <c r="D416">
         <v>2</v>
@@ -26748,9 +26138,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="3:22">
+    <row r="417" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C417">
-        <v>188</v>
+        <v>408</v>
       </c>
       <c r="D417">
         <v>2</v>
@@ -26810,9 +26200,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="3:22">
+    <row r="418" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C418">
-        <v>189</v>
+        <v>409</v>
       </c>
       <c r="D418">
         <v>2</v>
@@ -26872,9 +26262,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="3:22">
+    <row r="419" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C419">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="D419">
         <v>2</v>
@@ -26934,9 +26324,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="3:22">
+    <row r="420" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C420">
-        <v>191</v>
+        <v>411</v>
       </c>
       <c r="D420">
         <v>2</v>
@@ -26996,9 +26386,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="3:22">
+    <row r="421" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C421">
-        <v>192</v>
+        <v>412</v>
       </c>
       <c r="D421">
         <v>2</v>
@@ -27058,9 +26448,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="3:22">
+    <row r="422" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C422">
-        <v>193</v>
+        <v>413</v>
       </c>
       <c r="D422">
         <v>2</v>
@@ -27120,9 +26510,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="3:22">
+    <row r="423" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C423">
-        <v>194</v>
+        <v>414</v>
       </c>
       <c r="D423">
         <v>2</v>
@@ -27182,9 +26572,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="3:22">
+    <row r="424" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C424">
-        <v>195</v>
+        <v>415</v>
       </c>
       <c r="D424">
         <v>2</v>
@@ -27244,9 +26634,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="3:22">
+    <row r="425" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C425">
-        <v>196</v>
+        <v>416</v>
       </c>
       <c r="D425">
         <v>2</v>
@@ -27306,9 +26696,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="3:22">
+    <row r="426" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C426">
-        <v>197</v>
+        <v>417</v>
       </c>
       <c r="D426">
         <v>2</v>
@@ -27368,9 +26758,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="3:22">
+    <row r="427" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C427">
-        <v>198</v>
+        <v>418</v>
       </c>
       <c r="D427">
         <v>2</v>
@@ -27430,9 +26820,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="3:22">
+    <row r="428" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C428">
-        <v>199</v>
+        <v>419</v>
       </c>
       <c r="D428">
         <v>2</v>
@@ -27492,9 +26882,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="3:22">
+    <row r="429" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C429">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="D429">
         <v>2</v>
@@ -27554,9 +26944,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="3:22">
+    <row r="430" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C430">
-        <v>201</v>
+        <v>421</v>
       </c>
       <c r="D430">
         <v>2</v>
@@ -27616,9 +27006,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="3:22">
+    <row r="431" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C431">
-        <v>202</v>
+        <v>422</v>
       </c>
       <c r="D431">
         <v>2</v>
@@ -27678,9 +27068,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="3:22">
+    <row r="432" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C432">
-        <v>203</v>
+        <v>423</v>
       </c>
       <c r="D432">
         <v>2</v>
@@ -27740,9 +27130,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="3:22">
+    <row r="433" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C433">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="D433">
         <v>2</v>
@@ -27802,9 +27192,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="3:22">
+    <row r="434" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C434">
-        <v>205</v>
+        <v>425</v>
       </c>
       <c r="D434">
         <v>2</v>
@@ -27864,9 +27254,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="3:22">
+    <row r="435" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C435">
-        <v>206</v>
+        <v>426</v>
       </c>
       <c r="D435">
         <v>2</v>
@@ -27926,9 +27316,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="3:22">
+    <row r="436" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C436">
-        <v>207</v>
+        <v>427</v>
       </c>
       <c r="D436">
         <v>2</v>
@@ -27988,9 +27378,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="3:22">
+    <row r="437" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C437">
-        <v>208</v>
+        <v>428</v>
       </c>
       <c r="D437">
         <v>2</v>
@@ -28050,9 +27440,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="3:22">
+    <row r="438" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C438">
-        <v>209</v>
+        <v>429</v>
       </c>
       <c r="D438">
         <v>2</v>
@@ -28112,9 +27502,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="3:22">
+    <row r="439" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C439">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="D439">
         <v>2</v>
@@ -28174,9 +27564,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="3:22">
+    <row r="440" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C440">
-        <v>211</v>
+        <v>431</v>
       </c>
       <c r="D440">
         <v>2</v>
@@ -28236,9 +27626,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="3:22">
+    <row r="441" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C441">
-        <v>212</v>
+        <v>432</v>
       </c>
       <c r="D441">
         <v>2</v>
@@ -28298,9 +27688,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="3:22">
+    <row r="442" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C442">
-        <v>213</v>
+        <v>433</v>
       </c>
       <c r="D442">
         <v>2</v>
@@ -28360,9 +27750,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="3:22">
+    <row r="443" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C443">
-        <v>214</v>
+        <v>434</v>
       </c>
       <c r="D443">
         <v>2</v>
@@ -28422,9 +27812,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="3:22">
+    <row r="444" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C444">
-        <v>215</v>
+        <v>435</v>
       </c>
       <c r="D444">
         <v>2</v>
@@ -28484,9 +27874,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="3:22">
+    <row r="445" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C445">
-        <v>216</v>
+        <v>436</v>
       </c>
       <c r="D445">
         <v>2</v>
@@ -28546,9 +27936,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="3:22">
+    <row r="446" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C446">
-        <v>217</v>
+        <v>437</v>
       </c>
       <c r="D446">
         <v>2</v>
@@ -28608,9 +27998,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="3:22">
+    <row r="447" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C447">
-        <v>218</v>
+        <v>438</v>
       </c>
       <c r="D447">
         <v>2</v>
@@ -28670,9 +28060,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="3:22">
+    <row r="448" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C448">
-        <v>219</v>
+        <v>439</v>
       </c>
       <c r="D448">
         <v>2</v>
@@ -28732,9 +28122,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="3:22">
+    <row r="449" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C449">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="D449">
         <v>2</v>
@@ -28794,12 +28184,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="3:3">
+    <row r="450" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C450" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="451" spans="3:22">
+    <row r="451" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C451" t="s">
         <v>44</v>
       </c>
@@ -28858,12 +28248,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="452" spans="3:3">
+    <row r="452" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C452" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="453" spans="3:22">
+    <row r="453" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C453" t="s">
         <v>44</v>
       </c>
@@ -28922,9 +28312,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="3:22">
+    <row r="454" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C454">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="D454">
         <v>3</v>
@@ -28984,9 +28374,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="3:22">
+    <row r="455" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C455">
-        <v>2</v>
+        <v>442</v>
       </c>
       <c r="D455">
         <v>3</v>
@@ -29046,9 +28436,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="3:22">
+    <row r="456" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C456">
-        <v>3</v>
+        <v>443</v>
       </c>
       <c r="D456">
         <v>3</v>
@@ -29108,9 +28498,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="3:22">
+    <row r="457" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C457">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="D457">
         <v>3</v>
@@ -29170,9 +28560,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="3:22">
+    <row r="458" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C458">
-        <v>5</v>
+        <v>445</v>
       </c>
       <c r="D458">
         <v>3</v>
@@ -29232,9 +28622,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="3:22">
+    <row r="459" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C459">
-        <v>6</v>
+        <v>446</v>
       </c>
       <c r="D459">
         <v>3</v>
@@ -29294,9 +28684,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="3:22">
+    <row r="460" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C460">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="D460">
         <v>3</v>
@@ -29356,9 +28746,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="3:22">
+    <row r="461" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C461">
-        <v>8</v>
+        <v>448</v>
       </c>
       <c r="D461">
         <v>3</v>
@@ -29418,9 +28808,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="3:22">
+    <row r="462" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C462">
-        <v>9</v>
+        <v>449</v>
       </c>
       <c r="D462">
         <v>3</v>
@@ -29480,9 +28870,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="3:22">
+    <row r="463" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C463">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="D463">
         <v>3</v>
@@ -29542,9 +28932,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="3:22">
+    <row r="464" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C464">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="D464">
         <v>3</v>
@@ -29604,9 +28994,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="3:22">
+    <row r="465" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C465">
-        <v>12</v>
+        <v>452</v>
       </c>
       <c r="D465">
         <v>3</v>
@@ -29666,9 +29056,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="3:22">
+    <row r="466" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C466">
-        <v>13</v>
+        <v>453</v>
       </c>
       <c r="D466">
         <v>3</v>
@@ -29728,9 +29118,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="3:22">
+    <row r="467" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C467">
-        <v>14</v>
+        <v>454</v>
       </c>
       <c r="D467">
         <v>3</v>
@@ -29790,9 +29180,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="3:22">
+    <row r="468" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C468">
-        <v>15</v>
+        <v>455</v>
       </c>
       <c r="D468">
         <v>3</v>
@@ -29852,9 +29242,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="3:22">
+    <row r="469" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C469">
-        <v>16</v>
+        <v>456</v>
       </c>
       <c r="D469">
         <v>3</v>
@@ -29914,9 +29304,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="3:22">
+    <row r="470" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C470">
-        <v>17</v>
+        <v>457</v>
       </c>
       <c r="D470">
         <v>3</v>
@@ -29976,9 +29366,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="3:22">
+    <row r="471" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C471">
-        <v>18</v>
+        <v>458</v>
       </c>
       <c r="D471">
         <v>3</v>
@@ -30038,9 +29428,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="3:22">
+    <row r="472" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C472">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="D472">
         <v>3</v>
@@ -30100,9 +29490,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="3:22">
+    <row r="473" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C473">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="D473">
         <v>3</v>
@@ -30162,9 +29552,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="3:22">
+    <row r="474" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C474">
-        <v>21</v>
+        <v>461</v>
       </c>
       <c r="D474">
         <v>3</v>
@@ -30224,9 +29614,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="3:22">
+    <row r="475" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C475">
-        <v>22</v>
+        <v>462</v>
       </c>
       <c r="D475">
         <v>3</v>
@@ -30286,9 +29676,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="3:22">
+    <row r="476" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C476">
-        <v>23</v>
+        <v>463</v>
       </c>
       <c r="D476">
         <v>3</v>
@@ -30348,9 +29738,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="3:22">
+    <row r="477" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C477">
-        <v>24</v>
+        <v>464</v>
       </c>
       <c r="D477">
         <v>3</v>
@@ -30410,9 +29800,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="3:22">
+    <row r="478" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C478">
-        <v>25</v>
+        <v>465</v>
       </c>
       <c r="D478">
         <v>3</v>
@@ -30472,9 +29862,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="3:22">
+    <row r="479" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C479">
-        <v>26</v>
+        <v>466</v>
       </c>
       <c r="D479">
         <v>3</v>
@@ -30534,9 +29924,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="3:22">
+    <row r="480" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C480">
-        <v>27</v>
+        <v>467</v>
       </c>
       <c r="D480">
         <v>3</v>
@@ -30596,9 +29986,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="3:22">
+    <row r="481" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C481">
-        <v>28</v>
+        <v>468</v>
       </c>
       <c r="D481">
         <v>3</v>
@@ -30658,9 +30048,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="3:22">
+    <row r="482" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C482">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="D482">
         <v>3</v>
@@ -30720,9 +30110,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="3:22">
+    <row r="483" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C483">
-        <v>30</v>
+        <v>470</v>
       </c>
       <c r="D483">
         <v>3</v>
@@ -30782,9 +30172,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="3:22">
+    <row r="484" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C484">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="D484">
         <v>3</v>
@@ -30844,9 +30234,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="3:22">
+    <row r="485" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C485">
-        <v>32</v>
+        <v>472</v>
       </c>
       <c r="D485">
         <v>3</v>
@@ -30906,9 +30296,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="3:22">
+    <row r="486" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C486">
-        <v>33</v>
+        <v>473</v>
       </c>
       <c r="D486">
         <v>3</v>
@@ -30968,9 +30358,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="3:22">
+    <row r="487" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C487">
-        <v>34</v>
+        <v>474</v>
       </c>
       <c r="D487">
         <v>3</v>
@@ -31030,9 +30420,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="3:22">
+    <row r="488" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C488">
-        <v>35</v>
+        <v>475</v>
       </c>
       <c r="D488">
         <v>3</v>
@@ -31092,9 +30482,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="3:22">
+    <row r="489" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C489">
-        <v>36</v>
+        <v>476</v>
       </c>
       <c r="D489">
         <v>3</v>
@@ -31154,9 +30544,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="3:22">
+    <row r="490" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C490">
-        <v>37</v>
+        <v>477</v>
       </c>
       <c r="D490">
         <v>3</v>
@@ -31216,9 +30606,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="3:22">
+    <row r="491" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C491">
-        <v>38</v>
+        <v>478</v>
       </c>
       <c r="D491">
         <v>3</v>
@@ -31278,9 +30668,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="3:22">
+    <row r="492" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C492">
-        <v>39</v>
+        <v>479</v>
       </c>
       <c r="D492">
         <v>3</v>
@@ -31340,9 +30730,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="3:22">
+    <row r="493" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C493">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="D493">
         <v>3</v>
@@ -31402,9 +30792,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="3:22">
+    <row r="494" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C494">
-        <v>41</v>
+        <v>481</v>
       </c>
       <c r="D494">
         <v>3</v>
@@ -31464,9 +30854,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="3:22">
+    <row r="495" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C495">
-        <v>42</v>
+        <v>482</v>
       </c>
       <c r="D495">
         <v>3</v>
@@ -31526,9 +30916,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="3:22">
+    <row r="496" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C496">
-        <v>43</v>
+        <v>483</v>
       </c>
       <c r="D496">
         <v>3</v>
@@ -31588,9 +30978,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" spans="3:22">
+    <row r="497" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C497">
-        <v>44</v>
+        <v>484</v>
       </c>
       <c r="D497">
         <v>3</v>
@@ -31650,9 +31040,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="3:22">
+    <row r="498" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C498">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="D498">
         <v>3</v>
@@ -31712,9 +31102,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="3:22">
+    <row r="499" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C499">
-        <v>46</v>
+        <v>486</v>
       </c>
       <c r="D499">
         <v>3</v>
@@ -31774,9 +31164,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="3:22">
+    <row r="500" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C500">
-        <v>47</v>
+        <v>487</v>
       </c>
       <c r="D500">
         <v>3</v>
@@ -31836,9 +31226,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="3:22">
+    <row r="501" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C501">
-        <v>48</v>
+        <v>488</v>
       </c>
       <c r="D501">
         <v>3</v>
@@ -31898,9 +31288,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="3:22">
+    <row r="502" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C502">
-        <v>49</v>
+        <v>489</v>
       </c>
       <c r="D502">
         <v>3</v>
@@ -31960,9 +31350,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="3:22">
+    <row r="503" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C503">
-        <v>50</v>
+        <v>490</v>
       </c>
       <c r="D503">
         <v>3</v>
@@ -32022,9 +31412,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="3:22">
+    <row r="504" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C504">
-        <v>51</v>
+        <v>491</v>
       </c>
       <c r="D504">
         <v>3</v>
@@ -32084,9 +31474,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="3:22">
+    <row r="505" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C505">
-        <v>52</v>
+        <v>492</v>
       </c>
       <c r="D505">
         <v>3</v>
@@ -32146,9 +31536,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="3:22">
+    <row r="506" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C506">
-        <v>53</v>
+        <v>493</v>
       </c>
       <c r="D506">
         <v>3</v>
@@ -32208,9 +31598,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="3:22">
+    <row r="507" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C507">
-        <v>54</v>
+        <v>494</v>
       </c>
       <c r="D507">
         <v>3</v>
@@ -32270,9 +31660,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="3:22">
+    <row r="508" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C508">
-        <v>55</v>
+        <v>495</v>
       </c>
       <c r="D508">
         <v>3</v>
@@ -32332,9 +31722,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="3:22">
+    <row r="509" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C509">
-        <v>56</v>
+        <v>496</v>
       </c>
       <c r="D509">
         <v>3</v>
@@ -32394,9 +31784,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="3:22">
+    <row r="510" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C510">
-        <v>57</v>
+        <v>497</v>
       </c>
       <c r="D510">
         <v>3</v>
@@ -32456,9 +31846,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="3:22">
+    <row r="511" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C511">
-        <v>58</v>
+        <v>498</v>
       </c>
       <c r="D511">
         <v>3</v>
@@ -32518,9 +31908,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="3:22">
+    <row r="512" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C512">
-        <v>59</v>
+        <v>499</v>
       </c>
       <c r="D512">
         <v>3</v>
@@ -32580,9 +31970,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="3:22">
+    <row r="513" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C513">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="D513">
         <v>3</v>
@@ -32642,9 +32032,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="3:22">
+    <row r="514" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C514">
-        <v>61</v>
+        <v>501</v>
       </c>
       <c r="D514">
         <v>3</v>
@@ -32704,9 +32094,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="3:22">
+    <row r="515" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C515">
-        <v>62</v>
+        <v>502</v>
       </c>
       <c r="D515">
         <v>3</v>
@@ -32766,9 +32156,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="3:22">
+    <row r="516" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C516">
-        <v>63</v>
+        <v>503</v>
       </c>
       <c r="D516">
         <v>3</v>
@@ -32828,9 +32218,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" spans="3:22">
+    <row r="517" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C517">
-        <v>64</v>
+        <v>504</v>
       </c>
       <c r="D517">
         <v>3</v>
@@ -32890,9 +32280,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="3:22">
+    <row r="518" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C518">
-        <v>65</v>
+        <v>505</v>
       </c>
       <c r="D518">
         <v>3</v>
@@ -32952,9 +32342,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="519" spans="3:22">
+    <row r="519" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C519">
-        <v>66</v>
+        <v>506</v>
       </c>
       <c r="D519">
         <v>3</v>
@@ -33014,9 +32404,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="3:22">
+    <row r="520" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C520">
-        <v>67</v>
+        <v>507</v>
       </c>
       <c r="D520">
         <v>3</v>
@@ -33076,9 +32466,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="3:22">
+    <row r="521" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C521">
-        <v>68</v>
+        <v>508</v>
       </c>
       <c r="D521">
         <v>3</v>
@@ -33138,9 +32528,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="3:22">
+    <row r="522" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C522">
-        <v>69</v>
+        <v>509</v>
       </c>
       <c r="D522">
         <v>3</v>
@@ -33200,9 +32590,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" spans="3:22">
+    <row r="523" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C523">
-        <v>70</v>
+        <v>510</v>
       </c>
       <c r="D523">
         <v>3</v>
@@ -33262,9 +32652,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="3:22">
+    <row r="524" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C524">
-        <v>71</v>
+        <v>511</v>
       </c>
       <c r="D524">
         <v>3</v>
@@ -33324,9 +32714,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="525" spans="3:22">
+    <row r="525" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C525">
-        <v>72</v>
+        <v>512</v>
       </c>
       <c r="D525">
         <v>3</v>
@@ -33386,9 +32776,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="526" spans="3:22">
+    <row r="526" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C526">
-        <v>73</v>
+        <v>513</v>
       </c>
       <c r="D526">
         <v>3</v>
@@ -33448,9 +32838,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="3:22">
+    <row r="527" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C527">
-        <v>74</v>
+        <v>514</v>
       </c>
       <c r="D527">
         <v>3</v>
@@ -33510,9 +32900,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="3:22">
+    <row r="528" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C528">
-        <v>75</v>
+        <v>515</v>
       </c>
       <c r="D528">
         <v>3</v>
@@ -33572,9 +32962,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="3:22">
+    <row r="529" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C529">
-        <v>76</v>
+        <v>516</v>
       </c>
       <c r="D529">
         <v>3</v>
@@ -33634,9 +33024,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="3:22">
+    <row r="530" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C530">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="D530">
         <v>3</v>
@@ -33696,9 +33086,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="3:22">
+    <row r="531" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C531">
-        <v>78</v>
+        <v>518</v>
       </c>
       <c r="D531">
         <v>3</v>
@@ -33758,9 +33148,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="3:22">
+    <row r="532" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C532">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="D532">
         <v>3</v>
@@ -33820,9 +33210,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="3:22">
+    <row r="533" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C533">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="D533">
         <v>3</v>
@@ -33882,9 +33272,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="3:22">
+    <row r="534" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C534">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="D534">
         <v>3</v>
@@ -33944,9 +33334,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="3:22">
+    <row r="535" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C535">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="D535">
         <v>3</v>
@@ -34006,9 +33396,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="3:22">
+    <row r="536" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C536">
-        <v>83</v>
+        <v>523</v>
       </c>
       <c r="D536">
         <v>3</v>
@@ -34068,9 +33458,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="3:22">
+    <row r="537" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C537">
-        <v>84</v>
+        <v>524</v>
       </c>
       <c r="D537">
         <v>3</v>
@@ -34130,9 +33520,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="3:22">
+    <row r="538" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C538">
-        <v>85</v>
+        <v>525</v>
       </c>
       <c r="D538">
         <v>3</v>
@@ -34192,9 +33582,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="3:22">
+    <row r="539" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C539">
-        <v>86</v>
+        <v>526</v>
       </c>
       <c r="D539">
         <v>3</v>
@@ -34254,9 +33644,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="3:22">
+    <row r="540" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C540">
-        <v>87</v>
+        <v>527</v>
       </c>
       <c r="D540">
         <v>3</v>
@@ -34316,9 +33706,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="3:22">
+    <row r="541" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C541">
-        <v>88</v>
+        <v>528</v>
       </c>
       <c r="D541">
         <v>3</v>
@@ -34378,9 +33768,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="3:22">
+    <row r="542" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C542">
-        <v>89</v>
+        <v>529</v>
       </c>
       <c r="D542">
         <v>3</v>
@@ -34440,9 +33830,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="3:22">
+    <row r="543" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C543">
-        <v>90</v>
+        <v>530</v>
       </c>
       <c r="D543">
         <v>3</v>
@@ -34502,9 +33892,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="3:22">
+    <row r="544" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C544">
-        <v>91</v>
+        <v>531</v>
       </c>
       <c r="D544">
         <v>3</v>
@@ -34564,9 +33954,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="3:22">
+    <row r="545" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C545">
-        <v>92</v>
+        <v>532</v>
       </c>
       <c r="D545">
         <v>3</v>
@@ -34626,9 +34016,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="3:22">
+    <row r="546" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C546">
-        <v>93</v>
+        <v>533</v>
       </c>
       <c r="D546">
         <v>3</v>
@@ -34688,9 +34078,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="3:22">
+    <row r="547" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C547">
-        <v>94</v>
+        <v>534</v>
       </c>
       <c r="D547">
         <v>3</v>
@@ -34750,9 +34140,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="3:22">
+    <row r="548" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C548">
-        <v>95</v>
+        <v>535</v>
       </c>
       <c r="D548">
         <v>3</v>
@@ -34812,9 +34202,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="3:22">
+    <row r="549" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C549">
-        <v>96</v>
+        <v>536</v>
       </c>
       <c r="D549">
         <v>3</v>
@@ -34874,9 +34264,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="3:22">
+    <row r="550" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C550">
-        <v>97</v>
+        <v>537</v>
       </c>
       <c r="D550">
         <v>3</v>
@@ -34936,9 +34326,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="3:22">
+    <row r="551" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C551">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="D551">
         <v>3</v>
@@ -34998,9 +34388,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="3:22">
+    <row r="552" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C552">
-        <v>99</v>
+        <v>539</v>
       </c>
       <c r="D552">
         <v>3</v>
@@ -35060,9 +34450,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="3:22">
+    <row r="553" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C553">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="D553">
         <v>3</v>
@@ -35122,9 +34512,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="3:22">
+    <row r="554" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C554">
-        <v>101</v>
+        <v>541</v>
       </c>
       <c r="D554">
         <v>3</v>
@@ -35184,9 +34574,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="3:22">
+    <row r="555" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C555">
-        <v>102</v>
+        <v>542</v>
       </c>
       <c r="D555">
         <v>3</v>
@@ -35246,9 +34636,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="3:22">
+    <row r="556" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C556">
-        <v>103</v>
+        <v>543</v>
       </c>
       <c r="D556">
         <v>3</v>
@@ -35308,9 +34698,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="3:22">
+    <row r="557" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C557">
-        <v>104</v>
+        <v>544</v>
       </c>
       <c r="D557">
         <v>3</v>
@@ -35370,9 +34760,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="3:22">
+    <row r="558" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C558">
-        <v>105</v>
+        <v>545</v>
       </c>
       <c r="D558">
         <v>3</v>
@@ -35432,9 +34822,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="3:22">
+    <row r="559" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C559">
-        <v>106</v>
+        <v>546</v>
       </c>
       <c r="D559">
         <v>3</v>
@@ -35494,9 +34884,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="3:22">
+    <row r="560" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C560">
-        <v>107</v>
+        <v>547</v>
       </c>
       <c r="D560">
         <v>3</v>
@@ -35556,9 +34946,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="3:22">
+    <row r="561" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C561">
-        <v>108</v>
+        <v>548</v>
       </c>
       <c r="D561">
         <v>3</v>
@@ -35618,9 +35008,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="3:22">
+    <row r="562" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C562">
-        <v>109</v>
+        <v>549</v>
       </c>
       <c r="D562">
         <v>3</v>
@@ -35680,9 +35070,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="3:22">
+    <row r="563" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C563">
-        <v>110</v>
+        <v>550</v>
       </c>
       <c r="D563">
         <v>3</v>
@@ -35742,9 +35132,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="3:22">
+    <row r="564" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C564">
-        <v>111</v>
+        <v>551</v>
       </c>
       <c r="D564">
         <v>3</v>
@@ -35804,9 +35194,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="3:22">
+    <row r="565" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C565">
-        <v>112</v>
+        <v>552</v>
       </c>
       <c r="D565">
         <v>3</v>
@@ -35866,9 +35256,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="3:22">
+    <row r="566" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C566">
-        <v>113</v>
+        <v>553</v>
       </c>
       <c r="D566">
         <v>3</v>
@@ -35928,9 +35318,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="3:22">
+    <row r="567" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C567">
-        <v>114</v>
+        <v>554</v>
       </c>
       <c r="D567">
         <v>3</v>
@@ -35990,9 +35380,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="3:22">
+    <row r="568" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C568">
-        <v>115</v>
+        <v>555</v>
       </c>
       <c r="D568">
         <v>3</v>
@@ -36052,9 +35442,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="3:22">
+    <row r="569" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C569">
-        <v>116</v>
+        <v>556</v>
       </c>
       <c r="D569">
         <v>3</v>
@@ -36114,9 +35504,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="3:22">
+    <row r="570" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C570">
-        <v>117</v>
+        <v>557</v>
       </c>
       <c r="D570">
         <v>3</v>
@@ -36176,9 +35566,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="3:22">
+    <row r="571" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C571">
-        <v>118</v>
+        <v>558</v>
       </c>
       <c r="D571">
         <v>3</v>
@@ -36238,9 +35628,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="3:22">
+    <row r="572" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C572">
-        <v>119</v>
+        <v>559</v>
       </c>
       <c r="D572">
         <v>3</v>
@@ -36300,9 +35690,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="3:22">
+    <row r="573" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C573">
-        <v>120</v>
+        <v>560</v>
       </c>
       <c r="D573">
         <v>3</v>
@@ -36362,9 +35752,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="3:22">
+    <row r="574" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C574">
-        <v>121</v>
+        <v>561</v>
       </c>
       <c r="D574">
         <v>3</v>
@@ -36424,9 +35814,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="3:22">
+    <row r="575" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C575">
-        <v>122</v>
+        <v>562</v>
       </c>
       <c r="D575">
         <v>3</v>
@@ -36486,9 +35876,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="3:22">
+    <row r="576" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C576">
-        <v>123</v>
+        <v>563</v>
       </c>
       <c r="D576">
         <v>3</v>
@@ -36548,9 +35938,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="3:22">
+    <row r="577" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C577">
-        <v>124</v>
+        <v>564</v>
       </c>
       <c r="D577">
         <v>3</v>
@@ -36610,9 +36000,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="3:22">
+    <row r="578" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C578">
-        <v>125</v>
+        <v>565</v>
       </c>
       <c r="D578">
         <v>3</v>
@@ -36672,9 +36062,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="3:22">
+    <row r="579" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C579">
-        <v>126</v>
+        <v>566</v>
       </c>
       <c r="D579">
         <v>3</v>
@@ -36734,9 +36124,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="3:22">
+    <row r="580" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C580">
-        <v>127</v>
+        <v>567</v>
       </c>
       <c r="D580">
         <v>3</v>
@@ -36796,9 +36186,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="3:22">
+    <row r="581" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C581">
-        <v>128</v>
+        <v>568</v>
       </c>
       <c r="D581">
         <v>3</v>
@@ -36858,9 +36248,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="3:22">
+    <row r="582" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C582">
-        <v>129</v>
+        <v>569</v>
       </c>
       <c r="D582">
         <v>3</v>
@@ -36920,9 +36310,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="3:22">
+    <row r="583" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C583">
-        <v>130</v>
+        <v>570</v>
       </c>
       <c r="D583">
         <v>3</v>
@@ -36982,9 +36372,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="3:22">
+    <row r="584" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C584">
-        <v>131</v>
+        <v>571</v>
       </c>
       <c r="D584">
         <v>3</v>
@@ -37044,9 +36434,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="3:22">
+    <row r="585" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C585">
-        <v>132</v>
+        <v>572</v>
       </c>
       <c r="D585">
         <v>3</v>
@@ -37106,9 +36496,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="3:22">
+    <row r="586" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C586">
-        <v>133</v>
+        <v>573</v>
       </c>
       <c r="D586">
         <v>3</v>
@@ -37168,9 +36558,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="3:22">
+    <row r="587" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C587">
-        <v>134</v>
+        <v>574</v>
       </c>
       <c r="D587">
         <v>3</v>
@@ -37230,9 +36620,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="3:22">
+    <row r="588" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C588">
-        <v>135</v>
+        <v>575</v>
       </c>
       <c r="D588">
         <v>3</v>
@@ -37292,9 +36682,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="3:22">
+    <row r="589" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C589">
-        <v>136</v>
+        <v>576</v>
       </c>
       <c r="D589">
         <v>3</v>
@@ -37354,9 +36744,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="3:22">
+    <row r="590" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C590">
-        <v>137</v>
+        <v>577</v>
       </c>
       <c r="D590">
         <v>3</v>
@@ -37416,9 +36806,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="3:22">
+    <row r="591" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C591">
-        <v>138</v>
+        <v>578</v>
       </c>
       <c r="D591">
         <v>3</v>
@@ -37478,9 +36868,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="3:22">
+    <row r="592" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C592">
-        <v>139</v>
+        <v>579</v>
       </c>
       <c r="D592">
         <v>3</v>
@@ -37540,9 +36930,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="3:22">
+    <row r="593" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C593">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="D593">
         <v>3</v>
@@ -37602,9 +36992,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="3:22">
+    <row r="594" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C594">
-        <v>141</v>
+        <v>581</v>
       </c>
       <c r="D594">
         <v>3</v>
@@ -37664,9 +37054,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="3:22">
+    <row r="595" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C595">
-        <v>142</v>
+        <v>582</v>
       </c>
       <c r="D595">
         <v>3</v>
@@ -37726,9 +37116,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="3:22">
+    <row r="596" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C596">
-        <v>143</v>
+        <v>583</v>
       </c>
       <c r="D596">
         <v>3</v>
@@ -37788,9 +37178,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="3:22">
+    <row r="597" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C597">
-        <v>144</v>
+        <v>584</v>
       </c>
       <c r="D597">
         <v>3</v>
@@ -37850,9 +37240,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="3:22">
+    <row r="598" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C598">
-        <v>145</v>
+        <v>585</v>
       </c>
       <c r="D598">
         <v>3</v>
@@ -37912,9 +37302,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="3:22">
+    <row r="599" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C599">
-        <v>146</v>
+        <v>586</v>
       </c>
       <c r="D599">
         <v>3</v>
@@ -37974,9 +37364,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="3:22">
+    <row r="600" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C600">
-        <v>147</v>
+        <v>587</v>
       </c>
       <c r="D600">
         <v>3</v>
@@ -38036,9 +37426,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="3:22">
+    <row r="601" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C601">
-        <v>148</v>
+        <v>588</v>
       </c>
       <c r="D601">
         <v>3</v>
@@ -38098,9 +37488,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="3:22">
+    <row r="602" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C602">
-        <v>149</v>
+        <v>589</v>
       </c>
       <c r="D602">
         <v>3</v>
@@ -38160,9 +37550,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="3:22">
+    <row r="603" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C603">
-        <v>150</v>
+        <v>590</v>
       </c>
       <c r="D603">
         <v>3</v>
@@ -38222,9 +37612,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="3:22">
+    <row r="604" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C604">
-        <v>151</v>
+        <v>591</v>
       </c>
       <c r="D604">
         <v>3</v>
@@ -38284,9 +37674,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="3:22">
+    <row r="605" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C605">
-        <v>152</v>
+        <v>592</v>
       </c>
       <c r="D605">
         <v>3</v>
@@ -38346,9 +37736,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="3:22">
+    <row r="606" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C606">
-        <v>153</v>
+        <v>593</v>
       </c>
       <c r="D606">
         <v>3</v>
@@ -38408,9 +37798,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="3:22">
+    <row r="607" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C607">
-        <v>154</v>
+        <v>594</v>
       </c>
       <c r="D607">
         <v>3</v>
@@ -38470,9 +37860,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="3:22">
+    <row r="608" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C608">
-        <v>155</v>
+        <v>595</v>
       </c>
       <c r="D608">
         <v>3</v>
@@ -38532,9 +37922,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="3:22">
+    <row r="609" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C609">
-        <v>156</v>
+        <v>596</v>
       </c>
       <c r="D609">
         <v>3</v>
@@ -38594,9 +37984,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="3:22">
+    <row r="610" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C610">
-        <v>157</v>
+        <v>597</v>
       </c>
       <c r="D610">
         <v>3</v>
@@ -38656,9 +38046,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="3:22">
+    <row r="611" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C611">
-        <v>158</v>
+        <v>598</v>
       </c>
       <c r="D611">
         <v>3</v>
@@ -38718,9 +38108,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="3:22">
+    <row r="612" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C612">
-        <v>159</v>
+        <v>599</v>
       </c>
       <c r="D612">
         <v>3</v>
@@ -38780,9 +38170,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="3:22">
+    <row r="613" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C613">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="D613">
         <v>3</v>
@@ -38842,9 +38232,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="3:22">
+    <row r="614" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C614">
-        <v>161</v>
+        <v>601</v>
       </c>
       <c r="D614">
         <v>3</v>
@@ -38904,9 +38294,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="3:22">
+    <row r="615" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C615">
-        <v>162</v>
+        <v>602</v>
       </c>
       <c r="D615">
         <v>3</v>
@@ -38966,9 +38356,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="3:22">
+    <row r="616" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C616">
-        <v>163</v>
+        <v>603</v>
       </c>
       <c r="D616">
         <v>3</v>
@@ -39028,9 +38418,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="3:22">
+    <row r="617" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C617">
-        <v>164</v>
+        <v>604</v>
       </c>
       <c r="D617">
         <v>3</v>
@@ -39090,9 +38480,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="3:22">
+    <row r="618" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C618">
-        <v>165</v>
+        <v>605</v>
       </c>
       <c r="D618">
         <v>3</v>
@@ -39152,9 +38542,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="3:22">
+    <row r="619" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C619">
-        <v>166</v>
+        <v>606</v>
       </c>
       <c r="D619">
         <v>3</v>
@@ -39214,9 +38604,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="3:22">
+    <row r="620" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C620">
-        <v>167</v>
+        <v>607</v>
       </c>
       <c r="D620">
         <v>3</v>
@@ -39276,9 +38666,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="3:22">
+    <row r="621" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C621">
-        <v>168</v>
+        <v>608</v>
       </c>
       <c r="D621">
         <v>3</v>
@@ -39338,9 +38728,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="3:22">
+    <row r="622" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C622">
-        <v>169</v>
+        <v>609</v>
       </c>
       <c r="D622">
         <v>3</v>
@@ -39400,9 +38790,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="623" spans="3:22">
+    <row r="623" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C623">
-        <v>170</v>
+        <v>610</v>
       </c>
       <c r="D623">
         <v>3</v>
@@ -39462,9 +38852,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="3:22">
+    <row r="624" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C624">
-        <v>171</v>
+        <v>611</v>
       </c>
       <c r="D624">
         <v>3</v>
@@ -39524,9 +38914,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="3:22">
+    <row r="625" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C625">
-        <v>172</v>
+        <v>612</v>
       </c>
       <c r="D625">
         <v>3</v>
@@ -39586,9 +38976,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="3:22">
+    <row r="626" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C626">
-        <v>173</v>
+        <v>613</v>
       </c>
       <c r="D626">
         <v>3</v>
@@ -39648,9 +39038,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="3:22">
+    <row r="627" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C627">
-        <v>174</v>
+        <v>614</v>
       </c>
       <c r="D627">
         <v>3</v>
@@ -39710,9 +39100,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" spans="3:22">
+    <row r="628" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C628">
-        <v>175</v>
+        <v>615</v>
       </c>
       <c r="D628">
         <v>3</v>
@@ -39772,9 +39162,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="3:22">
+    <row r="629" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C629">
-        <v>176</v>
+        <v>616</v>
       </c>
       <c r="D629">
         <v>3</v>
@@ -39834,9 +39224,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="3:22">
+    <row r="630" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C630">
-        <v>177</v>
+        <v>617</v>
       </c>
       <c r="D630">
         <v>3</v>
@@ -39896,9 +39286,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="3:22">
+    <row r="631" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C631">
-        <v>178</v>
+        <v>618</v>
       </c>
       <c r="D631">
         <v>3</v>
@@ -39958,9 +39348,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="3:22">
+    <row r="632" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C632">
-        <v>179</v>
+        <v>619</v>
       </c>
       <c r="D632">
         <v>3</v>
@@ -40020,9 +39410,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="3:22">
+    <row r="633" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C633">
-        <v>180</v>
+        <v>620</v>
       </c>
       <c r="D633">
         <v>3</v>
@@ -40082,9 +39472,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="3:22">
+    <row r="634" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C634">
-        <v>181</v>
+        <v>621</v>
       </c>
       <c r="D634">
         <v>3</v>
@@ -40144,9 +39534,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="3:22">
+    <row r="635" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C635">
-        <v>182</v>
+        <v>622</v>
       </c>
       <c r="D635">
         <v>3</v>
@@ -40206,9 +39596,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="3:22">
+    <row r="636" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C636">
-        <v>183</v>
+        <v>623</v>
       </c>
       <c r="D636">
         <v>3</v>
@@ -40268,9 +39658,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="3:22">
+    <row r="637" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C637">
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="D637">
         <v>3</v>
@@ -40330,9 +39720,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="3:22">
+    <row r="638" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C638">
-        <v>185</v>
+        <v>625</v>
       </c>
       <c r="D638">
         <v>3</v>
@@ -40392,9 +39782,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="3:22">
+    <row r="639" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C639">
-        <v>186</v>
+        <v>626</v>
       </c>
       <c r="D639">
         <v>3</v>
@@ -40454,9 +39844,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="3:22">
+    <row r="640" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C640">
-        <v>187</v>
+        <v>627</v>
       </c>
       <c r="D640">
         <v>3</v>
@@ -40516,9 +39906,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="3:22">
+    <row r="641" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C641">
-        <v>188</v>
+        <v>628</v>
       </c>
       <c r="D641">
         <v>3</v>
@@ -40578,9 +39968,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="3:22">
+    <row r="642" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C642">
-        <v>189</v>
+        <v>629</v>
       </c>
       <c r="D642">
         <v>3</v>
@@ -40640,9 +40030,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="3:22">
+    <row r="643" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C643">
-        <v>190</v>
+        <v>630</v>
       </c>
       <c r="D643">
         <v>3</v>
@@ -40702,9 +40092,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="3:22">
+    <row r="644" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C644">
-        <v>191</v>
+        <v>631</v>
       </c>
       <c r="D644">
         <v>3</v>
@@ -40764,9 +40154,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="3:22">
+    <row r="645" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C645">
-        <v>192</v>
+        <v>632</v>
       </c>
       <c r="D645">
         <v>3</v>
@@ -40826,9 +40216,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="3:22">
+    <row r="646" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C646">
-        <v>193</v>
+        <v>633</v>
       </c>
       <c r="D646">
         <v>3</v>
@@ -40888,9 +40278,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="3:22">
+    <row r="647" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C647">
-        <v>194</v>
+        <v>634</v>
       </c>
       <c r="D647">
         <v>3</v>
@@ -40950,9 +40340,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="3:22">
+    <row r="648" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C648">
-        <v>195</v>
+        <v>635</v>
       </c>
       <c r="D648">
         <v>3</v>
@@ -41012,9 +40402,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="3:22">
+    <row r="649" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C649">
-        <v>196</v>
+        <v>636</v>
       </c>
       <c r="D649">
         <v>3</v>
@@ -41074,9 +40464,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="3:22">
+    <row r="650" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C650">
-        <v>197</v>
+        <v>637</v>
       </c>
       <c r="D650">
         <v>3</v>
@@ -41136,9 +40526,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="3:22">
+    <row r="651" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C651">
-        <v>198</v>
+        <v>638</v>
       </c>
       <c r="D651">
         <v>3</v>
@@ -41198,9 +40588,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="3:22">
+    <row r="652" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C652">
-        <v>199</v>
+        <v>639</v>
       </c>
       <c r="D652">
         <v>3</v>
@@ -41260,9 +40650,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="3:22">
+    <row r="653" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C653">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="D653">
         <v>3</v>
@@ -41322,9 +40712,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="3:22">
+    <row r="654" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C654">
-        <v>201</v>
+        <v>641</v>
       </c>
       <c r="D654">
         <v>3</v>
@@ -41384,9 +40774,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="3:22">
+    <row r="655" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C655">
-        <v>202</v>
+        <v>642</v>
       </c>
       <c r="D655">
         <v>3</v>
@@ -41446,9 +40836,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="3:22">
+    <row r="656" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C656">
-        <v>203</v>
+        <v>643</v>
       </c>
       <c r="D656">
         <v>3</v>
@@ -41508,9 +40898,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="3:22">
+    <row r="657" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C657">
-        <v>204</v>
+        <v>644</v>
       </c>
       <c r="D657">
         <v>3</v>
@@ -41570,9 +40960,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="3:22">
+    <row r="658" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C658">
-        <v>205</v>
+        <v>645</v>
       </c>
       <c r="D658">
         <v>3</v>
@@ -41632,9 +41022,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="3:22">
+    <row r="659" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C659">
-        <v>206</v>
+        <v>646</v>
       </c>
       <c r="D659">
         <v>3</v>
@@ -41694,9 +41084,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="3:22">
+    <row r="660" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C660">
-        <v>207</v>
+        <v>647</v>
       </c>
       <c r="D660">
         <v>3</v>
@@ -41756,9 +41146,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="3:22">
+    <row r="661" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C661">
-        <v>208</v>
+        <v>648</v>
       </c>
       <c r="D661">
         <v>3</v>
@@ -41818,9 +41208,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="3:22">
+    <row r="662" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C662">
-        <v>209</v>
+        <v>649</v>
       </c>
       <c r="D662">
         <v>3</v>
@@ -41880,9 +41270,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="3:22">
+    <row r="663" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C663">
-        <v>210</v>
+        <v>650</v>
       </c>
       <c r="D663">
         <v>3</v>
@@ -41942,9 +41332,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="3:22">
+    <row r="664" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C664">
-        <v>211</v>
+        <v>651</v>
       </c>
       <c r="D664">
         <v>3</v>
@@ -42004,9 +41394,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="3:22">
+    <row r="665" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C665">
-        <v>212</v>
+        <v>652</v>
       </c>
       <c r="D665">
         <v>3</v>
@@ -42066,9 +41456,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="3:22">
+    <row r="666" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C666">
-        <v>213</v>
+        <v>653</v>
       </c>
       <c r="D666">
         <v>3</v>
@@ -42128,9 +41518,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="3:22">
+    <row r="667" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C667">
-        <v>214</v>
+        <v>654</v>
       </c>
       <c r="D667">
         <v>3</v>
@@ -42190,9 +41580,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="3:22">
+    <row r="668" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C668">
-        <v>215</v>
+        <v>655</v>
       </c>
       <c r="D668">
         <v>3</v>
@@ -42252,9 +41642,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="3:22">
+    <row r="669" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C669">
-        <v>216</v>
+        <v>656</v>
       </c>
       <c r="D669">
         <v>3</v>
@@ -42314,9 +41704,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="3:22">
+    <row r="670" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C670">
-        <v>217</v>
+        <v>657</v>
       </c>
       <c r="D670">
         <v>3</v>
@@ -42376,9 +41766,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="3:22">
+    <row r="671" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C671">
-        <v>218</v>
+        <v>658</v>
       </c>
       <c r="D671">
         <v>3</v>
@@ -42438,9 +41828,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="3:22">
+    <row r="672" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C672">
-        <v>219</v>
+        <v>659</v>
       </c>
       <c r="D672">
         <v>3</v>
@@ -42500,9 +41890,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="3:22">
+    <row r="673" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C673">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="D673">
         <v>3</v>
@@ -42563,7 +41953,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>